--- a/data_year/zb/国民经济核算/分行业增加值构成.xlsx
+++ b/data_year/zb/国民经济核算/分行业增加值构成.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,778 +488,482 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.1446616237</v>
+        <v>4.5578115735</v>
       </c>
       <c r="C2" t="n">
-        <v>2.1402642271</v>
+        <v>1.8713001399</v>
       </c>
       <c r="D2" t="n">
-        <v>14.0535439643</v>
+        <v>16.6589283037</v>
       </c>
       <c r="E2" t="n">
-        <v>14.9018598185</v>
+        <v>9.6134743682</v>
       </c>
       <c r="F2" t="n">
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>40.1460779541</v>
+        <v>40.0668307069</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5185603669</v>
+        <v>6.6144172866</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1293170765</v>
+        <v>5.660161657</v>
       </c>
       <c r="J2" t="n">
-        <v>8.1370275176</v>
+        <v>8.712989349400001</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8286874513</v>
+        <v>6.2440866147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.1980368922</v>
+        <v>4.4763617457</v>
       </c>
       <c r="C3" t="n">
-        <v>2.1649489215</v>
+        <v>1.7554185346</v>
       </c>
       <c r="D3" t="n">
-        <v>15.318517924</v>
+        <v>16.6172349072</v>
       </c>
       <c r="E3" t="n">
-        <v>14.2337613715</v>
+        <v>9.452509802</v>
       </c>
       <c r="F3" t="n">
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>39.5571385426</v>
+        <v>39.9924294017</v>
       </c>
       <c r="H3" t="n">
-        <v>5.3629010643</v>
+        <v>6.7480696598</v>
       </c>
       <c r="I3" t="n">
-        <v>4.244673063</v>
+        <v>5.693457601</v>
       </c>
       <c r="J3" t="n">
-        <v>8.2270429943</v>
+        <v>8.9630857535</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6929792265</v>
+        <v>6.3014325944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.1570952729</v>
+        <v>4.4122033575</v>
       </c>
       <c r="C4" t="n">
-        <v>2.238586678</v>
+        <v>1.7707533423</v>
       </c>
       <c r="D4" t="n">
-        <v>16.2824578961</v>
+        <v>17.2753474415</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5853139494</v>
+        <v>9.3915857795</v>
       </c>
       <c r="F4" t="n">
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>39.2506334458</v>
+        <v>38.7874503294</v>
       </c>
       <c r="H4" t="n">
-        <v>5.3255479945</v>
+        <v>6.8506295045</v>
       </c>
       <c r="I4" t="n">
-        <v>4.3827240936</v>
+        <v>5.7098044801</v>
       </c>
       <c r="J4" t="n">
-        <v>8.2131442606</v>
+        <v>9.2531201589</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5644964091</v>
+        <v>6.5491056064</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.7594557386</v>
+        <v>4.3919514503</v>
       </c>
       <c r="C5" t="n">
-        <v>2.2747857812</v>
+        <v>1.7249404455</v>
       </c>
       <c r="D5" t="n">
-        <v>16.5576272615</v>
+        <v>17.8505691095</v>
       </c>
       <c r="E5" t="n">
-        <v>12.647587113</v>
+        <v>9.2235787957</v>
       </c>
       <c r="F5" t="n">
         <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>40.2862369964</v>
+        <v>37.4952682996</v>
       </c>
       <c r="H5" t="n">
-        <v>5.465464372</v>
+        <v>6.897014857</v>
       </c>
       <c r="I5" t="n">
-        <v>4.4803785935</v>
+        <v>5.9599681954</v>
       </c>
       <c r="J5" t="n">
-        <v>8.129100878499999</v>
+        <v>9.4928067926</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3993632654</v>
+        <v>6.9639020543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.7503998534</v>
+        <v>4.433817054</v>
       </c>
       <c r="C6" t="n">
-        <v>2.2644734665</v>
+        <v>1.7447773447</v>
       </c>
       <c r="D6" t="n">
-        <v>16.5315225189</v>
+        <v>18.5869139521</v>
       </c>
       <c r="E6" t="n">
-        <v>13.2295559772</v>
+        <v>8.930318508799999</v>
       </c>
       <c r="F6" t="n">
         <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>40.6418879448</v>
+        <v>36.2353544898</v>
       </c>
       <c r="H6" t="n">
-        <v>5.3883410806</v>
+        <v>7.0547383552</v>
       </c>
       <c r="I6" t="n">
-        <v>4.419244822</v>
+        <v>5.9180473481</v>
       </c>
       <c r="J6" t="n">
-        <v>7.6963574927</v>
+        <v>9.8157220345</v>
       </c>
       <c r="K6" t="n">
-        <v>4.0782168439</v>
+        <v>7.2803109127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.6955125191</v>
+        <v>4.4304481086</v>
       </c>
       <c r="C7" t="n">
-        <v>2.2398789094</v>
+        <v>1.7864505112</v>
       </c>
       <c r="D7" t="n">
-        <v>16.9455076542</v>
+        <v>19.8671480202</v>
       </c>
       <c r="E7" t="n">
-        <v>11.9668834423</v>
+        <v>8.6886722739</v>
       </c>
       <c r="F7" t="n">
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>41.6179634299</v>
+        <v>34.109908794</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5522735605</v>
+        <v>6.9334061915</v>
       </c>
       <c r="I7" t="n">
-        <v>4.528486416</v>
+        <v>6.1803450956</v>
       </c>
       <c r="J7" t="n">
-        <v>7.4570846122</v>
+        <v>9.8306985643</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9964094564</v>
+        <v>8.172922440500001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.5533791644</v>
+        <v>4.4250954878</v>
       </c>
       <c r="C8" t="n">
-        <v>2.1840225217</v>
+        <v>1.8231362916</v>
       </c>
       <c r="D8" t="n">
-        <v>16.8205658095</v>
+        <v>21.0001853175</v>
       </c>
       <c r="E8" t="n">
-        <v>10.9535765621</v>
+        <v>8.367020630400001</v>
       </c>
       <c r="F8" t="n">
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>42.0326458576</v>
+        <v>32.8788933852</v>
       </c>
       <c r="H8" t="n">
-        <v>5.6736191472</v>
+        <v>6.8996880779</v>
       </c>
       <c r="I8" t="n">
-        <v>4.7033094503</v>
+        <v>6.6947650295</v>
       </c>
       <c r="J8" t="n">
-        <v>7.5344258531</v>
+        <v>9.8774036346</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5444556341</v>
+        <v>8.033812145600001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.4074455486</v>
+        <v>4.4615710201</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0541545173</v>
+        <v>1.8095425358</v>
       </c>
       <c r="D9" t="n">
-        <v>16.4986193901</v>
+        <v>21.5238672405</v>
       </c>
       <c r="E9" t="n">
-        <v>10.5459291309</v>
+        <v>7.7713036783</v>
       </c>
       <c r="F9" t="n">
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>41.3528327037</v>
+        <v>33.065789287</v>
       </c>
       <c r="H9" t="n">
-        <v>5.6825079195</v>
+        <v>6.9595018838</v>
       </c>
       <c r="I9" t="n">
-        <v>5.0775130598</v>
+        <v>6.8609962207</v>
       </c>
       <c r="J9" t="n">
-        <v>7.7533099761</v>
+        <v>9.753978373600001</v>
       </c>
       <c r="K9" t="n">
-        <v>5.627687754</v>
+        <v>7.7934497602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.1269679267</v>
+        <v>4.3879120475</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0724143881</v>
+        <v>1.7971222889</v>
       </c>
       <c r="D10" t="n">
-        <v>16.6547224726</v>
+        <v>22.2070435623</v>
       </c>
       <c r="E10" t="n">
-        <v>10.47100646</v>
+        <v>7.3490845262</v>
       </c>
       <c r="F10" t="n">
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>41.2611488999</v>
+        <v>32.7526955962</v>
       </c>
       <c r="H10" t="n">
-        <v>5.8912710621</v>
+        <v>7.1243752335</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5733747887</v>
+        <v>7.0297311787</v>
       </c>
       <c r="J10" t="n">
-        <v>8.2025387887</v>
+        <v>9.671005895</v>
       </c>
       <c r="K10" t="n">
-        <v>5.7465552133</v>
+        <v>7.6810296717</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.7407653794</v>
+        <v>4.30467589037657</v>
       </c>
       <c r="C11" t="n">
-        <v>1.9961820175</v>
+        <v>1.81478133871492</v>
       </c>
       <c r="D11" t="n">
-        <v>17.216510436</v>
+        <v>23.0828525242856</v>
       </c>
       <c r="E11" t="n">
-        <v>9.9448757942</v>
+        <v>7.45826492184428</v>
       </c>
       <c r="F11" t="n">
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>39.6228265237</v>
+        <v>31.612148444382</v>
       </c>
       <c r="H11" t="n">
-        <v>6.5079805091</v>
+        <v>7.1613767510506</v>
       </c>
       <c r="I11" t="n">
-        <v>5.3829489523</v>
+        <v>7.14077451642225</v>
       </c>
       <c r="J11" t="n">
-        <v>8.3222765726</v>
+        <v>9.695832979623001</v>
       </c>
       <c r="K11" t="n">
-        <v>6.2656338154</v>
+        <v>7.7292926333008</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.5578115735</v>
+        <v>4.00396615666538</v>
       </c>
       <c r="C12" t="n">
-        <v>1.8713001399</v>
+        <v>1.5080846511486</v>
       </c>
       <c r="D12" t="n">
-        <v>16.6589283037</v>
+        <v>23.4641949855891</v>
       </c>
       <c r="E12" t="n">
-        <v>9.6134743682</v>
+        <v>8.03070118931438</v>
       </c>
       <c r="F12" t="n">
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>40.0668307069</v>
+        <v>30.871459906925</v>
       </c>
       <c r="H12" t="n">
-        <v>6.6144172866</v>
+        <v>7.14749906647284</v>
       </c>
       <c r="I12" t="n">
-        <v>5.660161657</v>
+        <v>7.24424844620158</v>
       </c>
       <c r="J12" t="n">
-        <v>8.712989349400001</v>
+        <v>9.479998914938299</v>
       </c>
       <c r="K12" t="n">
-        <v>6.2440866147</v>
+        <v>8.24984668274481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.4763617457</v>
+        <v>4.2</v>
       </c>
       <c r="C13" t="n">
-        <v>1.7554185346</v>
+        <v>1.6</v>
       </c>
       <c r="D13" t="n">
-        <v>16.6172349072</v>
+        <v>23</v>
       </c>
       <c r="E13" t="n">
-        <v>9.452509802</v>
+        <v>7.6</v>
       </c>
       <c r="F13" t="n">
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>39.9924294017</v>
+        <v>32.6</v>
       </c>
       <c r="H13" t="n">
-        <v>6.7480696598</v>
+        <v>6.9</v>
       </c>
       <c r="I13" t="n">
-        <v>5.693457601</v>
+        <v>6.7</v>
       </c>
       <c r="J13" t="n">
-        <v>8.9630857535</v>
+        <v>9.6</v>
       </c>
       <c r="K13" t="n">
-        <v>6.3014325944</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.4122033575</v>
+        <v>4.1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.7707533423</v>
+        <v>1.5</v>
       </c>
       <c r="D14" t="n">
-        <v>17.2753474415</v>
+        <v>23.1</v>
       </c>
       <c r="E14" t="n">
-        <v>9.3915857795</v>
+        <v>7.7</v>
       </c>
       <c r="F14" t="n">
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>38.7874503294</v>
+        <v>33.2</v>
       </c>
       <c r="H14" t="n">
-        <v>6.8506295045</v>
+        <v>6.9</v>
       </c>
       <c r="I14" t="n">
-        <v>5.7098044801</v>
+        <v>6.1</v>
       </c>
       <c r="J14" t="n">
-        <v>9.2531201589</v>
+        <v>9.5</v>
       </c>
       <c r="K14" t="n">
-        <v>6.5491056064</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4.3919514503</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.7249404455</v>
-      </c>
-      <c r="D15" t="n">
-        <v>17.8505691095</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.2235787957</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>37.4952682996</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6.897014857</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.9599681954</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9.4928067926</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6.9639020543</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4.433817054</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.7447773447</v>
-      </c>
-      <c r="D16" t="n">
-        <v>18.5869139521</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.930318508799999</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>36.2353544898</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7.0547383552</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.9180473481</v>
-      </c>
-      <c r="J16" t="n">
-        <v>9.8157220345</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7.2803109127</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4.4304481086</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.7864505112</v>
-      </c>
-      <c r="D17" t="n">
-        <v>19.8671480202</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.6886722739</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>34.109908794</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6.9334061915</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6.1803450956</v>
-      </c>
-      <c r="J17" t="n">
-        <v>9.8306985643</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8.172922440500001</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4.4250954878</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.8231362916</v>
-      </c>
-      <c r="D18" t="n">
-        <v>21.0001853175</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8.367020630400001</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>32.8788933852</v>
-      </c>
-      <c r="H18" t="n">
-        <v>6.8996880779</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.6947650295</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9.8774036346</v>
-      </c>
-      <c r="K18" t="n">
-        <v>8.033812145600001</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4.4615710201</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.8095425358</v>
-      </c>
-      <c r="D19" t="n">
-        <v>21.5238672405</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.7713036783</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>33.065789287</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6.9595018838</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6.8609962207</v>
-      </c>
-      <c r="J19" t="n">
-        <v>9.753978373600001</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7.7934497602</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4.3879120475</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.7971222889</v>
-      </c>
-      <c r="D20" t="n">
-        <v>22.2070435623</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7.3490845262</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>32.7526955962</v>
-      </c>
-      <c r="H20" t="n">
-        <v>7.1243752335</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7.0297311787</v>
-      </c>
-      <c r="J20" t="n">
-        <v>9.671005895</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7.6810296717</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4.30467589037657</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.81478133871492</v>
-      </c>
-      <c r="D21" t="n">
-        <v>23.0828525242856</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7.45826492184428</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>31.612148444382</v>
-      </c>
-      <c r="H21" t="n">
-        <v>7.1613767510506</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7.14077451642225</v>
-      </c>
-      <c r="J21" t="n">
-        <v>9.695832979623001</v>
-      </c>
-      <c r="K21" t="n">
-        <v>7.7292926333008</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>4</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="E22" t="n">
         <v>8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
